--- a/Labs/Excel/resources/пример_8_1.xlsx
+++ b/Labs/Excel/resources/пример_8_1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asp1r\Documents\asp1rant3\GitHub Repositories\BasicsOfAlgorithmizationAndProgramming\Labs\Excel\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8119FD8D-C2B1-4FC7-9058-04C6D0F7BE0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="15015" windowHeight="7890" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="1485" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
@@ -14,7 +20,18 @@
     <sheet name="Лист5" sheetId="6" r:id="rId5"/>
     <sheet name="Лист6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -198,13 +215,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0&quot;р.&quot;_-;\-* #,##0&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00&quot;р.&quot;_-;\-* #,##0.00&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0&quot;р.&quot;_-;\-* #,##0&quot;р.&quot;_-;_-* &quot;-&quot;??&quot;р.&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -286,22 +303,22 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -311,21 +328,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -333,32 +347,107 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
-    <cellStyle name="Денежный 2" xfId="2"/>
+    <cellStyle name="Денежный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="3"/>
-    <cellStyle name="Обычный_Лист1" xfId="6"/>
+    <cellStyle name="Обычный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный_Лист1" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Процентный" xfId="5" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="4" builtinId="3"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -480,24 +569,27 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица5" displayName="Таблица5" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица5" displayName="Таблица5" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Товар"/>
-    <tableColumn id="2" name="Объем"/>
-    <tableColumn id="3" name="Цена" dataDxfId="5" dataCellStyle="Денежный"/>
-    <tableColumn id="4" name="Брак">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Товар"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Объем"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Цена" dataDxfId="12" dataCellStyle="Денежный"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Брак">
       <calculatedColumnFormula>B2*0.037</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Некондиция">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Некондиция">
       <calculatedColumnFormula>B2*0.067</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Затраты" dataDxfId="4" dataCellStyle="Денежный">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Затраты" dataDxfId="11" dataCellStyle="Денежный">
       <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -506,23 +598,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица7" displayName="Таблица7" ref="A1:H14" totalsRowCount="1">
-  <autoFilter ref="A1:H13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Таблица7" displayName="Таблица7" ref="A1:H14" totalsRowCount="1">
+  <autoFilter ref="A1:H13" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Товар" totalsRowLabel="Итог"/>
-    <tableColumn id="2" name="Объем"/>
-    <tableColumn id="3" name="Цена" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Денежный"/>
-    <tableColumn id="4" name="Поставщик"/>
-    <tableColumn id="5" name="Брак">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Товар" totalsRowLabel="Итог"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Объем"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Цена" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Денежный"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Поставщик"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Брак">
       <calculatedColumnFormula>B2*0.037</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Некондиция">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Некондиция">
       <calculatedColumnFormula>B2*0.067</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Затраты" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Денежный">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Затраты" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Денежный">
       <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Менеджер"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Менеджер"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -571,7 +663,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,9 +696,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,6 +748,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -814,10 +940,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2135,16 +2263,79 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C54">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E54">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FC14BA74-8444-4EA3-9922-8DE82283D1A9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="aboveAverage" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F54">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D54">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="4Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="25"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="75"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FC14BA74-8444-4EA3-9922-8DE82283D1A9}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E2:E54</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3462,34 +3653,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThan">
-      <formula>28</formula>
-    </cfRule>
-    <cfRule type="iconSet" priority="3">
-      <iconSet>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4131,7 +4301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4498,7 +4668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4908,11 +5078,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4921,158 +5091,158 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="28" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>6030684.0000000009</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>1370610</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>2.3300000000000001E-2</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>40329</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>40359</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>5705436</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>1296690</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>40359</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>40390</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>7495488.0000000009</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>1703520</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>40390</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>40421</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>12966888.000000002</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>2947020</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>40421</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>40451</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>5501100</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>1250250</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>40451</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>40482</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <f>SUM(B3:B7)</f>
         <v>37699596</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <f>SUM(C3:C7)</f>
         <v>8568090</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <f>AVERAGE(D3:D7)</f>
         <v>2.8500000000000004E-2</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
